--- a/i360db/0.9.0/i360db.xlsx
+++ b/i360db/0.9.0/i360db.xlsx
@@ -4295,7 +4295,7 @@
         <v>290</v>
       </c>
       <c r="D2" s="17">
-        <v>44994</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/i360db/0.9.0/i360db.xlsx
+++ b/i360db/0.9.0/i360db.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$M$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$M$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="307">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -926,14 +926,23 @@
     <t>calendar-o</t>
   </si>
   <si>
+    <t>التقويم الهجري / العربي</t>
+  </si>
+  <si>
+    <t>HijriArabicCalendar</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/228</t>
+  </si>
+  <si>
+    <t>ProphetsStories</t>
+  </si>
+  <si>
     <t>إصدار 0.9.0 @ 2023/03/15 م - 1444/08/23 هـ
-طبعة @ 2023/03/15 م - 1444/08/23 هـ</t>
-  </si>
-  <si>
-    <t>التقويم الهجري / العربي</t>
-  </si>
-  <si>
-    <t>HijriArabicCalendar</t>
+طبعة @ 2023/03/19 م - 1444/08/27 هـ</t>
+  </si>
+  <si>
+    <t>«قصص الأنبياء»</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1766,7 +1775,7 @@
         <v>246</v>
       </c>
       <c r="F9" s="9">
-        <v>2.06</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>105</v>
@@ -2105,10 +2114,10 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>300</v>
@@ -2552,7 +2561,7 @@
       </c>
       <c r="B28" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7">
         <v>2</v>
@@ -2564,28 +2573,28 @@
         <v>246</v>
       </c>
       <c r="F28" s="9">
-        <v>2.04</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3914,7 +3923,7 @@
         <v>274</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>231</v>
@@ -4063,8 +4072,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M64))),NOT(ISERROR(SEARCH("app.box.com",M64))),NOT(ISERROR(SEARCH("islamway.net",M64))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M64))),NOT(ISERROR(SEARCH("tanzil.net",M64))),NOT(ISERROR(SEARCH("alsirah.com",M64))),NOT(ISERROR(SEARCH("i36",M64))),(RIGHT(M64,4)=".pdf"),C64=6,C64=8,C64=9),0,1)</f>
+        <v>1</v>
       </c>
       <c r="C64" s="7">
         <v>2</v>
@@ -4076,28 +4085,28 @@
         <v>246</v>
       </c>
       <c r="F64" s="9">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4227,25 +4236,73 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="13">
-        <f>SUBTOTAL(2,A2:A67)</f>
-        <v>66</v>
-      </c>
-      <c r="B68" s="14">
-        <f>SUBTOTAL(9,B2:B67)</f>
-        <v>16</v>
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12">
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M68))),NOT(ISERROR(SEARCH("app.box.com",M68))),NOT(ISERROR(SEARCH("islamway.net",M68))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M68))),NOT(ISERROR(SEARCH("tanzil.net",M68))),NOT(ISERROR(SEARCH("alsirah.com",M68))),NOT(ISERROR(SEARCH("i36",M68))),(RIGHT(M68,4)=".pdf"),C68=6,C68=8,C68=9),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="13">
+        <f>SUBTOTAL(2,A2:A68)</f>
+        <v>67</v>
+      </c>
+      <c r="B69" s="14">
+        <f>SUBTOTAL(9,B2:B68)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M67">
+  <autoFilter ref="A1:M68">
     <sortState ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J64" r:id="rId1"/>
+    <hyperlink ref="K64" r:id="rId2"/>
+    <hyperlink ref="L64" r:id="rId3"/>
+    <hyperlink ref="M64" r:id="rId4"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
